--- a/ctb/point.xlsx
+++ b/ctb/point.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\CTB_\seller1\ctb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\seller1\ctb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0A183E-52FE-4385-AD9F-EBC1E3223DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E6EB2E-C4CF-48A8-92CD-9D5C025E0B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="46">
   <si>
     <t>꽃뚱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>혀니마켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>브리센스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,6 +165,50 @@
   </si>
   <si>
     <t>Confirmation path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천억여사장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엉니_혀니마켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>픽하이토리_하이픽토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에잇고트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소스이마켓라이브쇼핑_갱이마켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로하핏걸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위수키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도매언니네_bag49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지니shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘라부티크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에토네</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" thickBottom="1" x14ac:dyDescent="0.35"/>
@@ -565,19 +605,19 @@
   <sheetData>
     <row r="1" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="5"/>
@@ -587,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -603,13 +643,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -619,13 +659,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -635,13 +675,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -651,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -667,13 +707,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -683,13 +723,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -699,13 +739,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -715,13 +755,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -731,13 +771,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -747,13 +787,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -763,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -779,16 +819,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -798,13 +838,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -814,13 +854,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -830,121 +870,261 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -968,12 +1148,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -983,7 +1163,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ctb/point.xlsx
+++ b/ctb/point.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\seller1\ctb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E6EB2E-C4CF-48A8-92CD-9D5C025E0B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FBD789-EFEB-4D37-BB16-E4B2CFFB5911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="47">
   <si>
     <t>꽃뚱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,10 @@
   </si>
   <si>
     <t>에토네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>솜이쇼핑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" thickBottom="1" x14ac:dyDescent="0.35"/>
@@ -1123,6 +1127,20 @@
         <v>25</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ctb/point.xlsx
+++ b/ctb/point.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\seller1\ctb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\seller1\ctb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FBD789-EFEB-4D37-BB16-E4B2CFFB5911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBC414C-976F-4605-8DE2-4E04FD7E7E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="51">
   <si>
     <t>꽃뚱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,22 @@
   </si>
   <si>
     <t>솜이쇼핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이터치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재발송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +236,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +264,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -295,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -310,6 +335,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -592,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" thickBottom="1" x14ac:dyDescent="0.35"/>
@@ -623,8 +654,12 @@
       <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="5"/>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -639,7 +674,9 @@
       <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
@@ -655,7 +692,9 @@
       <c r="E3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
@@ -671,7 +710,9 @@
       <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
@@ -687,7 +728,9 @@
       <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
@@ -703,7 +746,9 @@
       <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
@@ -719,7 +764,9 @@
       <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -735,7 +782,9 @@
       <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
@@ -751,7 +800,9 @@
       <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
@@ -767,7 +818,9 @@
       <c r="E10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
@@ -783,7 +836,9 @@
       <c r="E11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
@@ -799,7 +854,9 @@
       <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
@@ -815,7 +872,9 @@
       <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
@@ -834,7 +893,9 @@
       <c r="E14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
@@ -850,7 +911,9 @@
       <c r="E15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
@@ -866,7 +929,9 @@
       <c r="E16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
@@ -882,7 +947,9 @@
       <c r="E17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
@@ -901,7 +968,9 @@
       <c r="E18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
@@ -920,7 +989,9 @@
       <c r="E19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
@@ -939,7 +1010,9 @@
       <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
@@ -955,7 +1028,9 @@
       <c r="E21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
@@ -971,7 +1046,9 @@
       <c r="E22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
@@ -987,7 +1064,9 @@
       <c r="E23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
@@ -1003,6 +1082,9 @@
       <c r="E24" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F24" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -1017,6 +1099,9 @@
       <c r="E25" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F25" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="26" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -1031,6 +1116,9 @@
       <c r="E26" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F26" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="27" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -1045,6 +1133,9 @@
       <c r="E27" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F27" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="28" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
@@ -1059,6 +1150,9 @@
       <c r="E28" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F28" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="29" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -1073,6 +1167,9 @@
       <c r="E29" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F29" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="30" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
@@ -1087,6 +1184,9 @@
       <c r="E30" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F30" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="31" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
@@ -1101,6 +1201,9 @@
       <c r="E31" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F31" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="32" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -1115,8 +1218,11 @@
       <c r="E32" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F32" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -1129,20 +1235,45 @@
       <c r="E33" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="F33" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ctb/point.xlsx
+++ b/ctb/point.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\seller1\ctb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBC414C-976F-4605-8DE2-4E04FD7E7E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F31528C-6EFB-4D43-9245-7A8E7368BE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="52">
   <si>
     <t>꽃뚱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +229,10 @@
   </si>
   <si>
     <t>거부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" thickBottom="1" x14ac:dyDescent="0.35"/>
@@ -785,7 +789,9 @@
       <c r="F8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -1086,21 +1092,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:7" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>49</v>
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">

--- a/ctb/point.xlsx
+++ b/ctb/point.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\seller1\ctb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F31528C-6EFB-4D43-9245-7A8E7368BE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526E378A-77EC-4867-BAE2-1CD3DF92399B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" thickBottom="1" x14ac:dyDescent="0.35"/>
